--- a/Aumekubo/Old_files/transport3.xlsx
+++ b/Aumekubo/Old_files/transport3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4008" uniqueCount="748">
   <si>
     <t>tranportation</t>
   </si>
@@ -610,12 +610,12 @@
     <t>1st Avenue &amp; East 3rd Street</t>
   </si>
   <si>
+    <t>6th Avenue &amp; W 3rd Street</t>
+  </si>
+  <si>
     <t>356 Madison Street @ Vladeck Houses</t>
   </si>
   <si>
-    <t>6th Avenue &amp; West 3rd Street</t>
-  </si>
-  <si>
     <t>York Street</t>
   </si>
   <si>
@@ -1231,12 +1231,12 @@
     <t>10007</t>
   </si>
   <si>
+    <t>10038</t>
+  </si>
+  <si>
     <t>10279</t>
   </si>
   <si>
-    <t>10038</t>
-  </si>
-  <si>
     <t>10013</t>
   </si>
   <si>
@@ -1363,7 +1363,10 @@
     <t>Park Row</t>
   </si>
   <si>
-    <t>Dutch Street</t>
+    <t>John Street</t>
+  </si>
+  <si>
+    <t>Edens Alley</t>
   </si>
   <si>
     <t>Church Street</t>
@@ -1528,7 +1531,7 @@
     <t>Bridge Park Drive</t>
   </si>
   <si>
-    <t>FDR Drive</t>
+    <t>East River Esplanade</t>
   </si>
   <si>
     <t>Hudson River Waterfront Walkway</t>
@@ -1630,27 +1633,27 @@
     <t>Union Square East</t>
   </si>
   <si>
+    <t>West 14th Street</t>
+  </si>
+  <si>
+    <t>Hoboken Newport Walkway- Hudson River Waterfront Walkway</t>
+  </si>
+  <si>
+    <t>Fulton Mall</t>
+  </si>
+  <si>
+    <t>Metro Plaza Drive</t>
+  </si>
+  <si>
+    <t>Willoughby Street</t>
+  </si>
+  <si>
+    <t>East 15th Street</t>
+  </si>
+  <si>
     <t>Washington Boulevard</t>
   </si>
   <si>
-    <t>West 14th Street</t>
-  </si>
-  <si>
-    <t>Hoboken Newport Walkway- Hudson River Waterfront Walkway</t>
-  </si>
-  <si>
-    <t>Fulton Mall</t>
-  </si>
-  <si>
-    <t>Metro Plaza Drive</t>
-  </si>
-  <si>
-    <t>Willoughby Street</t>
-  </si>
-  <si>
-    <t>East 15th Street</t>
-  </si>
-  <si>
     <t>14th Street/6th Avenue-7th Subway transfer</t>
   </si>
   <si>
@@ -1717,13 +1720,16 @@
     <t>Park Place, New York, NY 10007, United States of America</t>
   </si>
   <si>
+    <t>John Street, New York, NY 10038, United States of America</t>
+  </si>
+  <si>
     <t>Broadway, New York, NY 10279, United States of America</t>
   </si>
   <si>
     <t>New York, NY 10000, United States of America</t>
   </si>
   <si>
-    <t>Dutch Street, New York, NY 10038, United States of America</t>
+    <t>Edens Alley, New York, NY 10038, United States of America</t>
   </si>
   <si>
     <t>Warren Street, New York, NY 10007, United States of America</t>
@@ -1858,12 +1864,18 @@
     <t>Battery Place, New York, NY 10280, United States of America</t>
   </si>
   <si>
+    <t>6th Avenue, New York, NY 10005, United States of America</t>
+  </si>
+  <si>
     <t>Broadway, New York, NY 10275, United States of America</t>
   </si>
   <si>
     <t>Pike Street, New York, NY 10002, United States of America</t>
   </si>
   <si>
+    <t>Greenwich Street, New York, NY 10275, United States of America</t>
+  </si>
+  <si>
     <t>Battery Place, New York, NY 10275, United States of America</t>
   </si>
   <si>
@@ -1885,15 +1897,12 @@
     <t>Broad Street, New York, NY 10004, United States of America</t>
   </si>
   <si>
-    <t>State Street, New York, NY 10004, United States of America</t>
+    <t>State Street, New York, NY 10275, United States of America</t>
   </si>
   <si>
     <t>Lafayette Street, New York, NY 10012, United States of America</t>
   </si>
   <si>
-    <t>6th Avenue, New York, NY 10005, United States of America</t>
-  </si>
-  <si>
     <t>Battery Park City Greenway, New York, NY 10280, United States of America</t>
   </si>
   <si>
@@ -1924,7 +1933,7 @@
     <t>Battery Park Underpass, New York, NY 10004, United States of America</t>
   </si>
   <si>
-    <t>6th Avenue, New York, NY 10012, United States of America</t>
+    <t>Spring Street, New York, NY 10012, United States of America</t>
   </si>
   <si>
     <t>Spring Street, New York, NY 10013, United States of America</t>
@@ -2023,7 +2032,7 @@
     <t>East 8th Street, New York, NY 10003, United States of America</t>
   </si>
   <si>
-    <t>FDR Drive, New York, NY 11251, United States of America</t>
+    <t>East River Esplanade, New York, NY 11251, United States of America</t>
   </si>
   <si>
     <t>West 10th Street, New York, NY 10014, United States of America</t>
@@ -2056,6 +2065,9 @@
     <t>Grand Street, New York, NY 11251, United States of America</t>
   </si>
   <si>
+    <t>3rd Avenue, New York, NY 10003, United States of America</t>
+  </si>
+  <si>
     <t>Sands Street, New York, NY 11251, United States of America</t>
   </si>
   <si>
@@ -2092,9 +2104,6 @@
     <t>Gold Street, New York, NY 11201, United States of America</t>
   </si>
   <si>
-    <t>Saint Mark's Place, New York, NY 10009, United States of America</t>
-  </si>
-  <si>
     <t>Avenue D, New York, NY 10009, United States of America</t>
   </si>
   <si>
@@ -2162,9 +2171,6 @@
   </si>
   <si>
     <t>Union Square East, New York, NY 10003, United States of America</t>
-  </si>
-  <si>
-    <t>Washington Boulevard, Jersey City, NJ 07311, United States of America</t>
   </si>
   <si>
     <t>West 14th Street, New York, NY 10011, United States of America</t>
@@ -2664,7 +2670,7 @@
         <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2690,7 +2696,7 @@
         <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2716,7 +2722,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2742,7 +2748,7 @@
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2768,7 +2774,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2794,7 +2800,7 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2820,7 +2826,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2846,7 +2852,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2872,7 +2878,7 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2898,7 +2904,7 @@
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2924,7 +2930,7 @@
         <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2950,7 +2956,7 @@
         <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2961,13 +2967,13 @@
         <v>399</v>
       </c>
       <c r="C14" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D14" t="s">
         <v>67</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F14" t="s">
         <v>399</v>
@@ -2976,7 +2982,7 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3002,7 +3008,7 @@
         <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3013,7 +3019,7 @@
         <v>399</v>
       </c>
       <c r="C16" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D16" t="s">
         <v>67</v>
@@ -3028,7 +3034,7 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3054,7 +3060,7 @@
         <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3065,7 +3071,7 @@
         <v>399</v>
       </c>
       <c r="C18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
@@ -3080,7 +3086,7 @@
         <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3091,13 +3097,13 @@
         <v>399</v>
       </c>
       <c r="C19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
         <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F19" t="s">
         <v>399</v>
@@ -3106,7 +3112,7 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3117,7 +3123,7 @@
         <v>399</v>
       </c>
       <c r="C20" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
         <v>67</v>
@@ -3132,7 +3138,7 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3158,7 +3164,7 @@
         <v>22</v>
       </c>
       <c r="H21" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3184,7 +3190,7 @@
         <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3210,7 +3216,7 @@
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -3227,7 +3233,7 @@
         <v>67</v>
       </c>
       <c r="E24" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F24" t="s">
         <v>399</v>
@@ -3236,7 +3242,7 @@
         <v>25</v>
       </c>
       <c r="H24" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -3262,7 +3268,7 @@
         <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -3288,7 +3294,7 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3305,7 +3311,7 @@
         <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F27" t="s">
         <v>399</v>
@@ -3314,7 +3320,7 @@
         <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3325,7 +3331,7 @@
         <v>399</v>
       </c>
       <c r="C28" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D28" t="s">
         <v>67</v>
@@ -3340,7 +3346,7 @@
         <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3357,7 +3363,7 @@
         <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F29" t="s">
         <v>399</v>
@@ -3366,7 +3372,7 @@
         <v>28</v>
       </c>
       <c r="H29" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3383,7 +3389,7 @@
         <v>67</v>
       </c>
       <c r="E30" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F30" t="s">
         <v>399</v>
@@ -3392,7 +3398,7 @@
         <v>29</v>
       </c>
       <c r="H30" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3418,7 +3424,7 @@
         <v>30</v>
       </c>
       <c r="H31" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3429,13 +3435,13 @@
         <v>399</v>
       </c>
       <c r="C32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D32" t="s">
         <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F32" t="s">
         <v>399</v>
@@ -3444,7 +3450,7 @@
         <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3455,7 +3461,7 @@
         <v>399</v>
       </c>
       <c r="C33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D33" t="s">
         <v>67</v>
@@ -3470,7 +3476,7 @@
         <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3487,7 +3493,7 @@
         <v>67</v>
       </c>
       <c r="E34" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F34" t="s">
         <v>399</v>
@@ -3496,7 +3502,7 @@
         <v>31</v>
       </c>
       <c r="H34" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3513,7 +3519,7 @@
         <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F35" t="s">
         <v>399</v>
@@ -3522,7 +3528,7 @@
         <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3548,7 +3554,7 @@
         <v>30</v>
       </c>
       <c r="H36" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3574,7 +3580,7 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3585,13 +3591,13 @@
         <v>399</v>
       </c>
       <c r="C38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D38" t="s">
         <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F38" t="s">
         <v>399</v>
@@ -3600,7 +3606,7 @@
         <v>21</v>
       </c>
       <c r="H38" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3626,7 +3632,7 @@
         <v>34</v>
       </c>
       <c r="H39" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3652,7 +3658,7 @@
         <v>21</v>
       </c>
       <c r="H40" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3669,7 +3675,7 @@
         <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F41" t="s">
         <v>399</v>
@@ -3678,7 +3684,7 @@
         <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3695,7 +3701,7 @@
         <v>67</v>
       </c>
       <c r="E42" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F42" t="s">
         <v>399</v>
@@ -3704,7 +3710,7 @@
         <v>35</v>
       </c>
       <c r="H42" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3730,7 +3736,7 @@
         <v>36</v>
       </c>
       <c r="H43" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3747,7 +3753,7 @@
         <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F44" t="s">
         <v>399</v>
@@ -3756,7 +3762,7 @@
         <v>37</v>
       </c>
       <c r="H44" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3773,7 +3779,7 @@
         <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F45" t="s">
         <v>399</v>
@@ -3782,7 +3788,7 @@
         <v>38</v>
       </c>
       <c r="H45" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3793,13 +3799,13 @@
         <v>399</v>
       </c>
       <c r="C46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D46" t="s">
         <v>67</v>
       </c>
       <c r="E46" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F46" t="s">
         <v>399</v>
@@ -3808,7 +3814,7 @@
         <v>39</v>
       </c>
       <c r="H46" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3825,7 +3831,7 @@
         <v>67</v>
       </c>
       <c r="E47" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F47" t="s">
         <v>399</v>
@@ -3834,7 +3840,7 @@
         <v>37</v>
       </c>
       <c r="H47" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3845,13 +3851,13 @@
         <v>399</v>
       </c>
       <c r="C48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D48" t="s">
         <v>67</v>
       </c>
       <c r="E48" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F48" t="s">
         <v>399</v>
@@ -3860,7 +3866,7 @@
         <v>40</v>
       </c>
       <c r="H48" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3871,13 +3877,13 @@
         <v>399</v>
       </c>
       <c r="C49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D49" t="s">
         <v>67</v>
       </c>
       <c r="E49" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F49" t="s">
         <v>399</v>
@@ -3886,7 +3892,7 @@
         <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3897,13 +3903,13 @@
         <v>399</v>
       </c>
       <c r="C50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D50" t="s">
         <v>67</v>
       </c>
       <c r="E50" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F50" t="s">
         <v>399</v>
@@ -3912,7 +3918,7 @@
         <v>39</v>
       </c>
       <c r="H50" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3923,13 +3929,13 @@
         <v>399</v>
       </c>
       <c r="C51" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D51" t="s">
         <v>67</v>
       </c>
       <c r="E51" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F51" t="s">
         <v>399</v>
@@ -3938,7 +3944,7 @@
         <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3964,7 +3970,7 @@
         <v>43</v>
       </c>
       <c r="H52" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3975,13 +3981,13 @@
         <v>399</v>
       </c>
       <c r="C53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D53" t="s">
         <v>67</v>
       </c>
       <c r="E53" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F53" t="s">
         <v>399</v>
@@ -3990,7 +3996,7 @@
         <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4007,7 +4013,7 @@
         <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F54" t="s">
         <v>399</v>
@@ -4016,7 +4022,7 @@
         <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4033,7 +4039,7 @@
         <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F55" t="s">
         <v>399</v>
@@ -4042,7 +4048,7 @@
         <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4059,7 +4065,7 @@
         <v>440</v>
       </c>
       <c r="E56" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F56" t="s">
         <v>399</v>
@@ -4068,7 +4074,7 @@
         <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4085,7 +4091,7 @@
         <v>67</v>
       </c>
       <c r="E57" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F57" t="s">
         <v>399</v>
@@ -4094,7 +4100,7 @@
         <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4105,13 +4111,13 @@
         <v>399</v>
       </c>
       <c r="C58" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D58" t="s">
         <v>67</v>
       </c>
       <c r="E58" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F58" t="s">
         <v>399</v>
@@ -4120,7 +4126,7 @@
         <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4131,13 +4137,13 @@
         <v>399</v>
       </c>
       <c r="C59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D59" t="s">
         <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F59" t="s">
         <v>399</v>
@@ -4146,7 +4152,7 @@
         <v>48</v>
       </c>
       <c r="H59" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4172,7 +4178,7 @@
         <v>49</v>
       </c>
       <c r="H60" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4183,13 +4189,13 @@
         <v>399</v>
       </c>
       <c r="C61" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D61" t="s">
         <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F61" t="s">
         <v>399</v>
@@ -4198,7 +4204,7 @@
         <v>48</v>
       </c>
       <c r="H61" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4224,7 +4230,7 @@
         <v>50</v>
       </c>
       <c r="H62" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4250,7 +4256,7 @@
         <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -4267,7 +4273,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F64" t="s">
         <v>399</v>
@@ -4276,7 +4282,7 @@
         <v>51</v>
       </c>
       <c r="H64" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4302,7 +4308,7 @@
         <v>52</v>
       </c>
       <c r="H65" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4313,13 +4319,13 @@
         <v>399</v>
       </c>
       <c r="C66" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D66" t="s">
         <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F66" t="s">
         <v>399</v>
@@ -4328,7 +4334,7 @@
         <v>53</v>
       </c>
       <c r="H66" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4354,7 +4360,7 @@
         <v>54</v>
       </c>
       <c r="H67" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4371,7 +4377,7 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F68" t="s">
         <v>399</v>
@@ -4380,7 +4386,7 @@
         <v>55</v>
       </c>
       <c r="H68" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4406,7 +4412,7 @@
         <v>56</v>
       </c>
       <c r="H69" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4432,7 +4438,7 @@
         <v>57</v>
       </c>
       <c r="H70" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4449,7 +4455,7 @@
         <v>67</v>
       </c>
       <c r="E71" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F71" t="s">
         <v>399</v>
@@ -4458,7 +4464,7 @@
         <v>58</v>
       </c>
       <c r="H71" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4469,13 +4475,13 @@
         <v>399</v>
       </c>
       <c r="C72" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D72" t="s">
         <v>67</v>
       </c>
       <c r="E72" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F72" t="s">
         <v>399</v>
@@ -4484,7 +4490,7 @@
         <v>56</v>
       </c>
       <c r="H72" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4510,7 +4516,7 @@
         <v>54</v>
       </c>
       <c r="H73" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4527,7 +4533,7 @@
         <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F74" t="s">
         <v>399</v>
@@ -4536,7 +4542,7 @@
         <v>57</v>
       </c>
       <c r="H74" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4553,7 +4559,7 @@
         <v>67</v>
       </c>
       <c r="E75" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F75" t="s">
         <v>399</v>
@@ -4562,7 +4568,7 @@
         <v>59</v>
       </c>
       <c r="H75" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4579,7 +4585,7 @@
         <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F76" t="s">
         <v>399</v>
@@ -4588,7 +4594,7 @@
         <v>60</v>
       </c>
       <c r="H76" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4605,7 +4611,7 @@
         <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F77" t="s">
         <v>399</v>
@@ -4614,7 +4620,7 @@
         <v>61</v>
       </c>
       <c r="H77" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4625,13 +4631,13 @@
         <v>399</v>
       </c>
       <c r="C78" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D78" t="s">
         <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F78" t="s">
         <v>399</v>
@@ -4640,7 +4646,7 @@
         <v>59</v>
       </c>
       <c r="H78" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4657,7 +4663,7 @@
         <v>67</v>
       </c>
       <c r="E79" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F79" t="s">
         <v>399</v>
@@ -4666,7 +4672,7 @@
         <v>62</v>
       </c>
       <c r="H79" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4692,7 +4698,7 @@
         <v>63</v>
       </c>
       <c r="H80" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4709,7 +4715,7 @@
         <v>67</v>
       </c>
       <c r="E81" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F81" t="s">
         <v>399</v>
@@ -4718,7 +4724,7 @@
         <v>64</v>
       </c>
       <c r="H81" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4735,7 +4741,7 @@
         <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F82" t="s">
         <v>399</v>
@@ -4744,7 +4750,7 @@
         <v>65</v>
       </c>
       <c r="H82" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4770,7 +4776,7 @@
         <v>66</v>
       </c>
       <c r="H83" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4796,7 +4802,7 @@
         <v>66</v>
       </c>
       <c r="H84" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4813,7 +4819,7 @@
         <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F85" t="s">
         <v>399</v>
@@ -4822,7 +4828,7 @@
         <v>66</v>
       </c>
       <c r="H85" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4839,16 +4845,16 @@
         <v>67</v>
       </c>
       <c r="E86" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F86" t="s">
         <v>399</v>
       </c>
       <c r="G86" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H86" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4865,7 +4871,7 @@
         <v>67</v>
       </c>
       <c r="E87" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F87" t="s">
         <v>399</v>
@@ -4874,7 +4880,7 @@
         <v>68</v>
       </c>
       <c r="H87" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4891,7 +4897,7 @@
         <v>67</v>
       </c>
       <c r="E88" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F88" t="s">
         <v>399</v>
@@ -4900,7 +4906,7 @@
         <v>69</v>
       </c>
       <c r="H88" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4926,7 +4932,7 @@
         <v>70</v>
       </c>
       <c r="H89" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4952,7 +4958,7 @@
         <v>71</v>
       </c>
       <c r="H90" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4969,7 +4975,7 @@
         <v>67</v>
       </c>
       <c r="E91" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F91" t="s">
         <v>399</v>
@@ -4978,7 +4984,7 @@
         <v>72</v>
       </c>
       <c r="H91" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5004,7 +5010,7 @@
         <v>66</v>
       </c>
       <c r="H92" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5021,7 +5027,7 @@
         <v>67</v>
       </c>
       <c r="E93" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F93" t="s">
         <v>399</v>
@@ -5030,7 +5036,7 @@
         <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5047,7 +5053,7 @@
         <v>67</v>
       </c>
       <c r="E94" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F94" t="s">
         <v>399</v>
@@ -5056,7 +5062,7 @@
         <v>74</v>
       </c>
       <c r="H94" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5073,7 +5079,7 @@
         <v>67</v>
       </c>
       <c r="E95" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F95" t="s">
         <v>399</v>
@@ -5082,7 +5088,7 @@
         <v>72</v>
       </c>
       <c r="H95" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5099,7 +5105,7 @@
         <v>67</v>
       </c>
       <c r="E96" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F96" t="s">
         <v>399</v>
@@ -5108,7 +5114,7 @@
         <v>75</v>
       </c>
       <c r="H96" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5125,7 +5131,7 @@
         <v>67</v>
       </c>
       <c r="E97" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F97" t="s">
         <v>399</v>
@@ -5134,7 +5140,7 @@
         <v>76</v>
       </c>
       <c r="H97" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5151,7 +5157,7 @@
         <v>67</v>
       </c>
       <c r="E98" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F98" t="s">
         <v>399</v>
@@ -5160,7 +5166,7 @@
         <v>76</v>
       </c>
       <c r="H98" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -5177,7 +5183,7 @@
         <v>67</v>
       </c>
       <c r="E99" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F99" t="s">
         <v>399</v>
@@ -5186,7 +5192,7 @@
         <v>75</v>
       </c>
       <c r="H99" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -5212,7 +5218,7 @@
         <v>77</v>
       </c>
       <c r="H100" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -5229,7 +5235,7 @@
         <v>67</v>
       </c>
       <c r="E101" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F101" t="s">
         <v>399</v>
@@ -5238,7 +5244,7 @@
         <v>78</v>
       </c>
       <c r="H101" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -5264,7 +5270,7 @@
         <v>79</v>
       </c>
       <c r="H102" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -5290,7 +5296,7 @@
         <v>80</v>
       </c>
       <c r="H103" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5307,7 +5313,7 @@
         <v>67</v>
       </c>
       <c r="E104" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F104" t="s">
         <v>399</v>
@@ -5316,7 +5322,7 @@
         <v>81</v>
       </c>
       <c r="H104" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5342,7 +5348,7 @@
         <v>66</v>
       </c>
       <c r="H105" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5359,7 +5365,7 @@
         <v>67</v>
       </c>
       <c r="E106" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F106" t="s">
         <v>399</v>
@@ -5368,7 +5374,7 @@
         <v>82</v>
       </c>
       <c r="H106" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5385,7 +5391,7 @@
         <v>67</v>
       </c>
       <c r="E107" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F107" t="s">
         <v>399</v>
@@ -5394,7 +5400,7 @@
         <v>83</v>
       </c>
       <c r="H107" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5411,7 +5417,7 @@
         <v>67</v>
       </c>
       <c r="E108" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F108" t="s">
         <v>399</v>
@@ -5420,7 +5426,7 @@
         <v>84</v>
       </c>
       <c r="H108" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5437,7 +5443,7 @@
         <v>67</v>
       </c>
       <c r="E109" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F109" t="s">
         <v>399</v>
@@ -5446,7 +5452,7 @@
         <v>85</v>
       </c>
       <c r="H109" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5472,7 +5478,7 @@
         <v>86</v>
       </c>
       <c r="H110" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5489,7 +5495,7 @@
         <v>67</v>
       </c>
       <c r="E111" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F111" t="s">
         <v>399</v>
@@ -5498,7 +5504,7 @@
         <v>87</v>
       </c>
       <c r="H111" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5515,7 +5521,7 @@
         <v>67</v>
       </c>
       <c r="E112" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F112" t="s">
         <v>399</v>
@@ -5524,7 +5530,7 @@
         <v>88</v>
       </c>
       <c r="H112" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5550,7 +5556,7 @@
         <v>89</v>
       </c>
       <c r="H113" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5576,7 +5582,7 @@
         <v>90</v>
       </c>
       <c r="H114" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5593,7 +5599,7 @@
         <v>67</v>
       </c>
       <c r="E115" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F115" t="s">
         <v>399</v>
@@ -5602,7 +5608,7 @@
         <v>91</v>
       </c>
       <c r="H115" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5619,7 +5625,7 @@
         <v>67</v>
       </c>
       <c r="E116" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F116" t="s">
         <v>399</v>
@@ -5628,7 +5634,7 @@
         <v>91</v>
       </c>
       <c r="H116" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5645,7 +5651,7 @@
         <v>67</v>
       </c>
       <c r="E117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F117" t="s">
         <v>399</v>
@@ -5654,7 +5660,7 @@
         <v>92</v>
       </c>
       <c r="H117" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5665,7 +5671,7 @@
         <v>399</v>
       </c>
       <c r="C118" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D118" t="s">
         <v>67</v>
@@ -5680,7 +5686,7 @@
         <v>93</v>
       </c>
       <c r="H118" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5706,7 +5712,7 @@
         <v>66</v>
       </c>
       <c r="H119" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5732,7 +5738,7 @@
         <v>94</v>
       </c>
       <c r="H120" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5758,7 +5764,7 @@
         <v>95</v>
       </c>
       <c r="H121" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5784,7 +5790,7 @@
         <v>96</v>
       </c>
       <c r="H122" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5801,7 +5807,7 @@
         <v>67</v>
       </c>
       <c r="E123" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F123" t="s">
         <v>399</v>
@@ -5810,7 +5816,7 @@
         <v>97</v>
       </c>
       <c r="H123" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5827,7 +5833,7 @@
         <v>67</v>
       </c>
       <c r="E124" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F124" t="s">
         <v>399</v>
@@ -5836,7 +5842,7 @@
         <v>92</v>
       </c>
       <c r="H124" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5853,7 +5859,7 @@
         <v>67</v>
       </c>
       <c r="E125" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="F125" t="s">
         <v>399</v>
@@ -5862,7 +5868,7 @@
         <v>98</v>
       </c>
       <c r="H125" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5879,7 +5885,7 @@
         <v>67</v>
       </c>
       <c r="E126" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F126" t="s">
         <v>399</v>
@@ -5888,7 +5894,7 @@
         <v>99</v>
       </c>
       <c r="H126" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5905,7 +5911,7 @@
         <v>67</v>
       </c>
       <c r="E127" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F127" t="s">
         <v>399</v>
@@ -5914,7 +5920,7 @@
         <v>100</v>
       </c>
       <c r="H127" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5931,7 +5937,7 @@
         <v>67</v>
       </c>
       <c r="E128" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F128" t="s">
         <v>399</v>
@@ -5940,7 +5946,7 @@
         <v>101</v>
       </c>
       <c r="H128" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5957,7 +5963,7 @@
         <v>442</v>
       </c>
       <c r="E129" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F129" t="s">
         <v>399</v>
@@ -5966,7 +5972,7 @@
         <v>102</v>
       </c>
       <c r="H129" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5992,7 +5998,7 @@
         <v>103</v>
       </c>
       <c r="H130" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6003,7 +6009,7 @@
         <v>399</v>
       </c>
       <c r="C131" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D131" t="s">
         <v>67</v>
@@ -6018,7 +6024,7 @@
         <v>104</v>
       </c>
       <c r="H131" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6044,7 +6050,7 @@
         <v>94</v>
       </c>
       <c r="H132" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6061,7 +6067,7 @@
         <v>67</v>
       </c>
       <c r="E133" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F133" t="s">
         <v>399</v>
@@ -6070,7 +6076,7 @@
         <v>105</v>
       </c>
       <c r="H133" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6087,7 +6093,7 @@
         <v>67</v>
       </c>
       <c r="E134" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F134" t="s">
         <v>399</v>
@@ -6096,7 +6102,7 @@
         <v>106</v>
       </c>
       <c r="H134" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6113,7 +6119,7 @@
         <v>67</v>
       </c>
       <c r="E135" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F135" t="s">
         <v>399</v>
@@ -6122,7 +6128,7 @@
         <v>107</v>
       </c>
       <c r="H135" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6139,7 +6145,7 @@
         <v>67</v>
       </c>
       <c r="E136" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F136" t="s">
         <v>399</v>
@@ -6148,7 +6154,7 @@
         <v>106</v>
       </c>
       <c r="H136" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6174,7 +6180,7 @@
         <v>108</v>
       </c>
       <c r="H137" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6200,7 +6206,7 @@
         <v>103</v>
       </c>
       <c r="H138" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6217,7 +6223,7 @@
         <v>67</v>
       </c>
       <c r="E139" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F139" t="s">
         <v>399</v>
@@ -6226,7 +6232,7 @@
         <v>109</v>
       </c>
       <c r="H139" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6243,7 +6249,7 @@
         <v>67</v>
       </c>
       <c r="E140" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F140" t="s">
         <v>399</v>
@@ -6252,7 +6258,7 @@
         <v>110</v>
       </c>
       <c r="H140" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6269,7 +6275,7 @@
         <v>67</v>
       </c>
       <c r="E141" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F141" t="s">
         <v>399</v>
@@ -6278,7 +6284,7 @@
         <v>111</v>
       </c>
       <c r="H141" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6304,7 +6310,7 @@
         <v>112</v>
       </c>
       <c r="H142" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6321,7 +6327,7 @@
         <v>67</v>
       </c>
       <c r="E143" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F143" t="s">
         <v>399</v>
@@ -6330,7 +6336,7 @@
         <v>113</v>
       </c>
       <c r="H143" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6356,7 +6362,7 @@
         <v>114</v>
       </c>
       <c r="H144" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6367,13 +6373,13 @@
         <v>399</v>
       </c>
       <c r="C145" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="D145" t="s">
         <v>67</v>
       </c>
       <c r="E145" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F145" t="s">
         <v>399</v>
@@ -6382,7 +6388,7 @@
         <v>115</v>
       </c>
       <c r="H145" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6408,7 +6414,7 @@
         <v>116</v>
       </c>
       <c r="H146" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6425,7 +6431,7 @@
         <v>67</v>
       </c>
       <c r="E147" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F147" t="s">
         <v>399</v>
@@ -6434,7 +6440,7 @@
         <v>117</v>
       </c>
       <c r="H147" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6451,7 +6457,7 @@
         <v>67</v>
       </c>
       <c r="E148" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F148" t="s">
         <v>399</v>
@@ -6460,7 +6466,7 @@
         <v>118</v>
       </c>
       <c r="H148" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6486,7 +6492,7 @@
         <v>119</v>
       </c>
       <c r="H149" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6512,7 +6518,7 @@
         <v>120</v>
       </c>
       <c r="H150" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6529,7 +6535,7 @@
         <v>67</v>
       </c>
       <c r="E151" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F151" t="s">
         <v>399</v>
@@ -6538,7 +6544,7 @@
         <v>121</v>
       </c>
       <c r="H151" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6555,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="E152" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F152" t="s">
         <v>399</v>
@@ -6564,7 +6570,7 @@
         <v>122</v>
       </c>
       <c r="H152" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6590,7 +6596,7 @@
         <v>123</v>
       </c>
       <c r="H153" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6607,7 +6613,7 @@
         <v>67</v>
       </c>
       <c r="E154" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F154" t="s">
         <v>399</v>
@@ -6616,7 +6622,7 @@
         <v>124</v>
       </c>
       <c r="H154" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6627,13 +6633,13 @@
         <v>399</v>
       </c>
       <c r="C155" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D155" t="s">
         <v>67</v>
       </c>
       <c r="E155" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F155" t="s">
         <v>399</v>
@@ -6642,7 +6648,7 @@
         <v>125</v>
       </c>
       <c r="H155" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6659,7 +6665,7 @@
         <v>67</v>
       </c>
       <c r="E156" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F156" t="s">
         <v>399</v>
@@ -6668,7 +6674,7 @@
         <v>126</v>
       </c>
       <c r="H156" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6685,7 +6691,7 @@
         <v>67</v>
       </c>
       <c r="E157" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F157" t="s">
         <v>399</v>
@@ -6694,7 +6700,7 @@
         <v>127</v>
       </c>
       <c r="H157" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6711,7 +6717,7 @@
         <v>67</v>
       </c>
       <c r="E158" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F158" t="s">
         <v>399</v>
@@ -6720,7 +6726,7 @@
         <v>128</v>
       </c>
       <c r="H158" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6746,7 +6752,7 @@
         <v>129</v>
       </c>
       <c r="H159" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6757,13 +6763,13 @@
         <v>399</v>
       </c>
       <c r="C160" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D160" t="s">
         <v>67</v>
       </c>
       <c r="E160" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F160" t="s">
         <v>399</v>
@@ -6772,7 +6778,7 @@
         <v>130</v>
       </c>
       <c r="H160" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6789,7 +6795,7 @@
         <v>67</v>
       </c>
       <c r="E161" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F161" t="s">
         <v>399</v>
@@ -6798,7 +6804,7 @@
         <v>131</v>
       </c>
       <c r="H161" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6815,7 +6821,7 @@
         <v>67</v>
       </c>
       <c r="E162" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F162" t="s">
         <v>399</v>
@@ -6824,7 +6830,7 @@
         <v>127</v>
       </c>
       <c r="H162" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6841,7 +6847,7 @@
         <v>443</v>
       </c>
       <c r="E163" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F163" t="s">
         <v>399</v>
@@ -6850,7 +6856,7 @@
         <v>132</v>
       </c>
       <c r="H163" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6876,7 +6882,7 @@
         <v>133</v>
       </c>
       <c r="H164" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6893,7 +6899,7 @@
         <v>67</v>
       </c>
       <c r="E165" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F165" t="s">
         <v>399</v>
@@ -6902,7 +6908,7 @@
         <v>134</v>
       </c>
       <c r="H165" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6919,7 +6925,7 @@
         <v>67</v>
       </c>
       <c r="E166" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F166" t="s">
         <v>399</v>
@@ -6928,7 +6934,7 @@
         <v>135</v>
       </c>
       <c r="H166" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6945,7 +6951,7 @@
         <v>67</v>
       </c>
       <c r="E167" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F167" t="s">
         <v>399</v>
@@ -6954,7 +6960,7 @@
         <v>128</v>
       </c>
       <c r="H167" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6980,7 +6986,7 @@
         <v>117</v>
       </c>
       <c r="H168" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7006,7 +7012,7 @@
         <v>117</v>
       </c>
       <c r="H169" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7023,7 +7029,7 @@
         <v>67</v>
       </c>
       <c r="E170" t="s">
-        <v>345</v>
+        <v>117</v>
       </c>
       <c r="F170" t="s">
         <v>399</v>
@@ -7032,7 +7038,7 @@
         <v>136</v>
       </c>
       <c r="H170" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7049,7 +7055,7 @@
         <v>67</v>
       </c>
       <c r="E171" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F171" t="s">
         <v>399</v>
@@ -7058,7 +7064,7 @@
         <v>137</v>
       </c>
       <c r="H171" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7075,16 +7081,16 @@
         <v>67</v>
       </c>
       <c r="E172" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F172" t="s">
         <v>399</v>
       </c>
       <c r="G172" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H172" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7110,7 +7116,7 @@
         <v>139</v>
       </c>
       <c r="H173" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7136,7 +7142,7 @@
         <v>140</v>
       </c>
       <c r="H174" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -7162,7 +7168,7 @@
         <v>141</v>
       </c>
       <c r="H175" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -7179,7 +7185,7 @@
         <v>67</v>
       </c>
       <c r="E176" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F176" t="s">
         <v>399</v>
@@ -7188,7 +7194,7 @@
         <v>142</v>
       </c>
       <c r="H176" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -7205,7 +7211,7 @@
         <v>67</v>
       </c>
       <c r="E177" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F177" t="s">
         <v>399</v>
@@ -7214,7 +7220,7 @@
         <v>143</v>
       </c>
       <c r="H177" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -7231,7 +7237,7 @@
         <v>67</v>
       </c>
       <c r="E178" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F178" t="s">
         <v>399</v>
@@ -7240,7 +7246,7 @@
         <v>137</v>
       </c>
       <c r="H178" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -7266,7 +7272,7 @@
         <v>144</v>
       </c>
       <c r="H179" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -7283,7 +7289,7 @@
         <v>67</v>
       </c>
       <c r="E180" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F180" t="s">
         <v>399</v>
@@ -7292,7 +7298,7 @@
         <v>145</v>
       </c>
       <c r="H180" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7318,7 +7324,7 @@
         <v>146</v>
       </c>
       <c r="H181" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7344,7 +7350,7 @@
         <v>144</v>
       </c>
       <c r="H182" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7361,7 +7367,7 @@
         <v>67</v>
       </c>
       <c r="E183" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F183" t="s">
         <v>399</v>
@@ -7370,7 +7376,7 @@
         <v>147</v>
       </c>
       <c r="H183" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7396,7 +7402,7 @@
         <v>148</v>
       </c>
       <c r="H184" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7413,7 +7419,7 @@
         <v>67</v>
       </c>
       <c r="E185" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F185" t="s">
         <v>399</v>
@@ -7422,7 +7428,7 @@
         <v>149</v>
       </c>
       <c r="H185" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7439,7 +7445,7 @@
         <v>67</v>
       </c>
       <c r="E186" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F186" t="s">
         <v>399</v>
@@ -7448,7 +7454,7 @@
         <v>145</v>
       </c>
       <c r="H186" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7465,7 +7471,7 @@
         <v>67</v>
       </c>
       <c r="E187" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F187" t="s">
         <v>399</v>
@@ -7474,7 +7480,7 @@
         <v>150</v>
       </c>
       <c r="H187" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7491,7 +7497,7 @@
         <v>67</v>
       </c>
       <c r="E188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F188" t="s">
         <v>399</v>
@@ -7500,7 +7506,7 @@
         <v>151</v>
       </c>
       <c r="H188" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7517,7 +7523,7 @@
         <v>67</v>
       </c>
       <c r="E189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F189" t="s">
         <v>399</v>
@@ -7526,7 +7532,7 @@
         <v>152</v>
       </c>
       <c r="H189" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7552,7 +7558,7 @@
         <v>153</v>
       </c>
       <c r="H190" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7578,7 +7584,7 @@
         <v>154</v>
       </c>
       <c r="H191" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7604,7 +7610,7 @@
         <v>155</v>
       </c>
       <c r="H192" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7621,7 +7627,7 @@
         <v>67</v>
       </c>
       <c r="E193" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F193" t="s">
         <v>399</v>
@@ -7630,7 +7636,7 @@
         <v>156</v>
       </c>
       <c r="H193" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7647,7 +7653,7 @@
         <v>67</v>
       </c>
       <c r="E194" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F194" t="s">
         <v>399</v>
@@ -7656,7 +7662,7 @@
         <v>157</v>
       </c>
       <c r="H194" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7673,7 +7679,7 @@
         <v>67</v>
       </c>
       <c r="E195" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F195" t="s">
         <v>399</v>
@@ -7682,7 +7688,7 @@
         <v>158</v>
       </c>
       <c r="H195" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7699,16 +7705,16 @@
         <v>67</v>
       </c>
       <c r="E196" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F196" t="s">
         <v>399</v>
       </c>
       <c r="G196" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H196" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7734,7 +7740,7 @@
         <v>159</v>
       </c>
       <c r="H197" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7751,7 +7757,7 @@
         <v>67</v>
       </c>
       <c r="E198" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F198" t="s">
         <v>399</v>
@@ -7760,7 +7766,7 @@
         <v>160</v>
       </c>
       <c r="H198" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7777,7 +7783,7 @@
         <v>67</v>
       </c>
       <c r="E199" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F199" t="s">
         <v>399</v>
@@ -7786,7 +7792,7 @@
         <v>161</v>
       </c>
       <c r="H199" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7797,13 +7803,13 @@
         <v>399</v>
       </c>
       <c r="C200" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D200" t="s">
         <v>67</v>
       </c>
       <c r="E200" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F200" t="s">
         <v>399</v>
@@ -7812,7 +7818,7 @@
         <v>162</v>
       </c>
       <c r="H200" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7829,7 +7835,7 @@
         <v>67</v>
       </c>
       <c r="E201" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F201" t="s">
         <v>399</v>
@@ -7838,7 +7844,7 @@
         <v>150</v>
       </c>
       <c r="H201" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7855,7 +7861,7 @@
         <v>67</v>
       </c>
       <c r="E202" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F202" t="s">
         <v>399</v>
@@ -7864,7 +7870,7 @@
         <v>163</v>
       </c>
       <c r="H202" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7881,7 +7887,7 @@
         <v>67</v>
       </c>
       <c r="E203" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F203" t="s">
         <v>399</v>
@@ -7890,7 +7896,7 @@
         <v>162</v>
       </c>
       <c r="H203" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7916,7 +7922,7 @@
         <v>164</v>
       </c>
       <c r="H204" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7933,7 +7939,7 @@
         <v>67</v>
       </c>
       <c r="E205" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F205" t="s">
         <v>399</v>
@@ -7942,7 +7948,7 @@
         <v>165</v>
       </c>
       <c r="H205" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7959,7 +7965,7 @@
         <v>67</v>
       </c>
       <c r="E206" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F206" t="s">
         <v>399</v>
@@ -7968,7 +7974,7 @@
         <v>165</v>
       </c>
       <c r="H206" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7994,7 +8000,7 @@
         <v>166</v>
       </c>
       <c r="H207" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8011,7 +8017,7 @@
         <v>67</v>
       </c>
       <c r="E208" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F208" t="s">
         <v>399</v>
@@ -8020,7 +8026,7 @@
         <v>167</v>
       </c>
       <c r="H208" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8046,7 +8052,7 @@
         <v>168</v>
       </c>
       <c r="H209" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8063,7 +8069,7 @@
         <v>67</v>
       </c>
       <c r="E210" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F210" t="s">
         <v>399</v>
@@ -8072,7 +8078,7 @@
         <v>169</v>
       </c>
       <c r="H210" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8098,7 +8104,7 @@
         <v>170</v>
       </c>
       <c r="H211" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8115,7 +8121,7 @@
         <v>67</v>
       </c>
       <c r="E212" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F212" t="s">
         <v>399</v>
@@ -8124,7 +8130,7 @@
         <v>171</v>
       </c>
       <c r="H212" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8141,7 +8147,7 @@
         <v>67</v>
       </c>
       <c r="E213" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F213" t="s">
         <v>399</v>
@@ -8150,7 +8156,7 @@
         <v>172</v>
       </c>
       <c r="H213" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -8167,7 +8173,7 @@
         <v>67</v>
       </c>
       <c r="E214" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F214" t="s">
         <v>399</v>
@@ -8176,7 +8182,7 @@
         <v>173</v>
       </c>
       <c r="H214" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -8193,7 +8199,7 @@
         <v>67</v>
       </c>
       <c r="E215" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F215" t="s">
         <v>399</v>
@@ -8202,7 +8208,7 @@
         <v>174</v>
       </c>
       <c r="H215" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -8228,7 +8234,7 @@
         <v>175</v>
       </c>
       <c r="H216" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -8245,7 +8251,7 @@
         <v>67</v>
       </c>
       <c r="E217" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F217" t="s">
         <v>399</v>
@@ -8254,7 +8260,7 @@
         <v>176</v>
       </c>
       <c r="H217" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -8271,7 +8277,7 @@
         <v>67</v>
       </c>
       <c r="E218" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F218" t="s">
         <v>399</v>
@@ -8280,7 +8286,7 @@
         <v>177</v>
       </c>
       <c r="H218" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8297,7 +8303,7 @@
         <v>67</v>
       </c>
       <c r="E219" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F219" t="s">
         <v>399</v>
@@ -8306,7 +8312,7 @@
         <v>178</v>
       </c>
       <c r="H219" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8323,7 +8329,7 @@
         <v>67</v>
       </c>
       <c r="E220" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F220" t="s">
         <v>399</v>
@@ -8332,7 +8338,7 @@
         <v>169</v>
       </c>
       <c r="H220" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8349,7 +8355,7 @@
         <v>67</v>
       </c>
       <c r="E221" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F221" t="s">
         <v>399</v>
@@ -8358,7 +8364,7 @@
         <v>179</v>
       </c>
       <c r="H221" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8375,7 +8381,7 @@
         <v>67</v>
       </c>
       <c r="E222" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F222" t="s">
         <v>399</v>
@@ -8384,7 +8390,7 @@
         <v>180</v>
       </c>
       <c r="H222" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8410,7 +8416,7 @@
         <v>181</v>
       </c>
       <c r="H223" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8427,7 +8433,7 @@
         <v>67</v>
       </c>
       <c r="E224" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F224" t="s">
         <v>399</v>
@@ -8436,7 +8442,7 @@
         <v>182</v>
       </c>
       <c r="H224" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8453,16 +8459,16 @@
         <v>67</v>
       </c>
       <c r="E225" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F225" t="s">
         <v>399</v>
       </c>
       <c r="G225" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H225" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8488,7 +8494,7 @@
         <v>183</v>
       </c>
       <c r="H226" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8514,7 +8520,7 @@
         <v>184</v>
       </c>
       <c r="H227" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8540,7 +8546,7 @@
         <v>185</v>
       </c>
       <c r="H228" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8566,7 +8572,7 @@
         <v>186</v>
       </c>
       <c r="H229" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8583,7 +8589,7 @@
         <v>67</v>
       </c>
       <c r="E230" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F230" t="s">
         <v>399</v>
@@ -8592,7 +8598,7 @@
         <v>182</v>
       </c>
       <c r="H230" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8609,7 +8615,7 @@
         <v>67</v>
       </c>
       <c r="E231" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F231" t="s">
         <v>399</v>
@@ -8618,7 +8624,7 @@
         <v>187</v>
       </c>
       <c r="H231" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8644,7 +8650,7 @@
         <v>188</v>
       </c>
       <c r="H232" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8670,7 +8676,7 @@
         <v>189</v>
       </c>
       <c r="H233" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8687,7 +8693,7 @@
         <v>67</v>
       </c>
       <c r="E234" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F234" t="s">
         <v>399</v>
@@ -8696,7 +8702,7 @@
         <v>190</v>
       </c>
       <c r="H234" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8722,7 +8728,7 @@
         <v>191</v>
       </c>
       <c r="H235" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8748,7 +8754,7 @@
         <v>192</v>
       </c>
       <c r="H236" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8765,7 +8771,7 @@
         <v>67</v>
       </c>
       <c r="E237" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F237" t="s">
         <v>399</v>
@@ -8774,7 +8780,7 @@
         <v>193</v>
       </c>
       <c r="H237" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8800,7 +8806,7 @@
         <v>192</v>
       </c>
       <c r="H238" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8817,16 +8823,16 @@
         <v>67</v>
       </c>
       <c r="E239" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F239" t="s">
         <v>399</v>
       </c>
       <c r="G239" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H239" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8843,7 +8849,7 @@
         <v>67</v>
       </c>
       <c r="E240" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
         <v>399</v>
@@ -8852,7 +8858,7 @@
         <v>194</v>
       </c>
       <c r="H240" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8869,7 +8875,7 @@
         <v>67</v>
       </c>
       <c r="E241" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F241" t="s">
         <v>399</v>
@@ -8878,7 +8884,7 @@
         <v>195</v>
       </c>
       <c r="H241" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8904,7 +8910,7 @@
         <v>196</v>
       </c>
       <c r="H242" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8930,7 +8936,7 @@
         <v>197</v>
       </c>
       <c r="H243" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8941,13 +8947,13 @@
         <v>399</v>
       </c>
       <c r="C244" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D244" t="s">
         <v>67</v>
       </c>
       <c r="E244" t="s">
-        <v>458</v>
+        <v>345</v>
       </c>
       <c r="F244" t="s">
         <v>399</v>
@@ -8956,7 +8962,7 @@
         <v>198</v>
       </c>
       <c r="H244" t="s">
-        <v>591</v>
+        <v>649</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8967,13 +8973,13 @@
         <v>399</v>
       </c>
       <c r="C245" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D245" t="s">
         <v>67</v>
       </c>
       <c r="E245" t="s">
-        <v>345</v>
+        <v>459</v>
       </c>
       <c r="F245" t="s">
         <v>399</v>
@@ -8982,7 +8988,7 @@
         <v>199</v>
       </c>
       <c r="H245" t="s">
-        <v>646</v>
+        <v>593</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8999,7 +9005,7 @@
         <v>67</v>
       </c>
       <c r="E246" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F246" t="s">
         <v>399</v>
@@ -9008,7 +9014,7 @@
         <v>200</v>
       </c>
       <c r="H246" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9034,7 +9040,7 @@
         <v>201</v>
       </c>
       <c r="H247" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9051,7 +9057,7 @@
         <v>67</v>
       </c>
       <c r="E248" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F248" t="s">
         <v>399</v>
@@ -9060,7 +9066,7 @@
         <v>202</v>
       </c>
       <c r="H248" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9077,7 +9083,7 @@
         <v>67</v>
       </c>
       <c r="E249" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F249" t="s">
         <v>399</v>
@@ -9086,7 +9092,7 @@
         <v>203</v>
       </c>
       <c r="H249" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9103,7 +9109,7 @@
         <v>67</v>
       </c>
       <c r="E250" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F250" t="s">
         <v>399</v>
@@ -9112,7 +9118,7 @@
         <v>204</v>
       </c>
       <c r="H250" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9138,7 +9144,7 @@
         <v>205</v>
       </c>
       <c r="H251" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -9155,7 +9161,7 @@
         <v>67</v>
       </c>
       <c r="E252" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F252" t="s">
         <v>399</v>
@@ -9164,7 +9170,7 @@
         <v>206</v>
       </c>
       <c r="H252" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9181,7 +9187,7 @@
         <v>67</v>
       </c>
       <c r="E253" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F253" t="s">
         <v>399</v>
@@ -9190,7 +9196,7 @@
         <v>207</v>
       </c>
       <c r="H253" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -9207,7 +9213,7 @@
         <v>67</v>
       </c>
       <c r="E254" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F254" t="s">
         <v>399</v>
@@ -9216,7 +9222,7 @@
         <v>208</v>
       </c>
       <c r="H254" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -9233,16 +9239,16 @@
         <v>67</v>
       </c>
       <c r="E255" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F255" t="s">
         <v>399</v>
       </c>
       <c r="G255" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="H255" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -9268,7 +9274,7 @@
         <v>209</v>
       </c>
       <c r="H256" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -9285,7 +9291,7 @@
         <v>67</v>
       </c>
       <c r="E257" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
         <v>399</v>
@@ -9294,7 +9300,7 @@
         <v>202</v>
       </c>
       <c r="H257" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9320,7 +9326,7 @@
         <v>210</v>
       </c>
       <c r="H258" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9337,7 +9343,7 @@
         <v>67</v>
       </c>
       <c r="E259" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F259" t="s">
         <v>399</v>
@@ -9346,7 +9352,7 @@
         <v>211</v>
       </c>
       <c r="H259" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9372,7 +9378,7 @@
         <v>205</v>
       </c>
       <c r="H260" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9389,7 +9395,7 @@
         <v>67</v>
       </c>
       <c r="E261" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F261" t="s">
         <v>399</v>
@@ -9398,7 +9404,7 @@
         <v>212</v>
       </c>
       <c r="H261" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9415,7 +9421,7 @@
         <v>67</v>
       </c>
       <c r="E262" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F262" t="s">
         <v>399</v>
@@ -9424,7 +9430,7 @@
         <v>213</v>
       </c>
       <c r="H262" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9441,7 +9447,7 @@
         <v>67</v>
       </c>
       <c r="E263" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F263" t="s">
         <v>399</v>
@@ -9450,7 +9456,7 @@
         <v>214</v>
       </c>
       <c r="H263" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9467,16 +9473,16 @@
         <v>67</v>
       </c>
       <c r="E264" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G264" t="s">
         <v>215</v>
       </c>
       <c r="H264" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9493,7 +9499,7 @@
         <v>67</v>
       </c>
       <c r="E265" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F265" t="s">
         <v>399</v>
@@ -9502,7 +9508,7 @@
         <v>216</v>
       </c>
       <c r="H265" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9528,7 +9534,7 @@
         <v>217</v>
       </c>
       <c r="H266" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9545,7 +9551,7 @@
         <v>67</v>
       </c>
       <c r="E267" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F267" t="s">
         <v>399</v>
@@ -9554,7 +9560,7 @@
         <v>218</v>
       </c>
       <c r="H267" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9571,7 +9577,7 @@
         <v>67</v>
       </c>
       <c r="E268" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F268" t="s">
         <v>399</v>
@@ -9580,7 +9586,7 @@
         <v>219</v>
       </c>
       <c r="H268" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9606,7 +9612,7 @@
         <v>220</v>
       </c>
       <c r="H269" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9623,7 +9629,7 @@
         <v>67</v>
       </c>
       <c r="E270" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F270" t="s">
         <v>399</v>
@@ -9632,7 +9638,7 @@
         <v>221</v>
       </c>
       <c r="H270" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9658,7 +9664,7 @@
         <v>222</v>
       </c>
       <c r="H271" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9684,7 +9690,7 @@
         <v>223</v>
       </c>
       <c r="H272" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9701,16 +9707,16 @@
         <v>67</v>
       </c>
       <c r="E273" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F273" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G273" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H273" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9727,7 +9733,7 @@
         <v>67</v>
       </c>
       <c r="E274" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F274" t="s">
         <v>399</v>
@@ -9736,7 +9742,7 @@
         <v>224</v>
       </c>
       <c r="H274" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9753,16 +9759,16 @@
         <v>67</v>
       </c>
       <c r="E275" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F275" t="s">
         <v>399</v>
       </c>
       <c r="G275" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H275" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9779,7 +9785,7 @@
         <v>67</v>
       </c>
       <c r="E276" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F276" t="s">
         <v>399</v>
@@ -9788,7 +9794,7 @@
         <v>212</v>
       </c>
       <c r="H276" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9805,16 +9811,16 @@
         <v>67</v>
       </c>
       <c r="E277" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F277" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G277" t="s">
         <v>225</v>
       </c>
       <c r="H277" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9831,7 +9837,7 @@
         <v>67</v>
       </c>
       <c r="E278" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F278" t="s">
         <v>399</v>
@@ -9840,7 +9846,7 @@
         <v>226</v>
       </c>
       <c r="H278" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9857,7 +9863,7 @@
         <v>67</v>
       </c>
       <c r="E279" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F279" t="s">
         <v>399</v>
@@ -9866,7 +9872,7 @@
         <v>227</v>
       </c>
       <c r="H279" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9883,7 +9889,7 @@
         <v>67</v>
       </c>
       <c r="E280" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F280" t="s">
         <v>399</v>
@@ -9892,7 +9898,7 @@
         <v>228</v>
       </c>
       <c r="H280" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9909,7 +9915,7 @@
         <v>67</v>
       </c>
       <c r="E281" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F281" t="s">
         <v>399</v>
@@ -9918,7 +9924,7 @@
         <v>229</v>
       </c>
       <c r="H281" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9944,7 +9950,7 @@
         <v>230</v>
       </c>
       <c r="H282" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9961,7 +9967,7 @@
         <v>67</v>
       </c>
       <c r="E283" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F283" t="s">
         <v>399</v>
@@ -9970,7 +9976,7 @@
         <v>231</v>
       </c>
       <c r="H283" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9987,7 +9993,7 @@
         <v>67</v>
       </c>
       <c r="E284" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F284" t="s">
         <v>399</v>
@@ -9996,7 +10002,7 @@
         <v>232</v>
       </c>
       <c r="H284" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10013,7 +10019,7 @@
         <v>67</v>
       </c>
       <c r="E285" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F285" t="s">
         <v>399</v>
@@ -10022,7 +10028,7 @@
         <v>233</v>
       </c>
       <c r="H285" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10039,7 +10045,7 @@
         <v>67</v>
       </c>
       <c r="E286" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F286" t="s">
         <v>399</v>
@@ -10048,7 +10054,7 @@
         <v>234</v>
       </c>
       <c r="H286" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10065,7 +10071,7 @@
         <v>67</v>
       </c>
       <c r="E287" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F287" t="s">
         <v>399</v>
@@ -10074,7 +10080,7 @@
         <v>235</v>
       </c>
       <c r="H287" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10091,7 +10097,7 @@
         <v>67</v>
       </c>
       <c r="E288" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F288" t="s">
         <v>399</v>
@@ -10100,7 +10106,7 @@
         <v>236</v>
       </c>
       <c r="H288" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10117,7 +10123,7 @@
         <v>67</v>
       </c>
       <c r="E289" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F289" t="s">
         <v>399</v>
@@ -10126,7 +10132,7 @@
         <v>234</v>
       </c>
       <c r="H289" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10143,7 +10149,7 @@
         <v>67</v>
       </c>
       <c r="E290" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F290" t="s">
         <v>399</v>
@@ -10152,7 +10158,7 @@
         <v>236</v>
       </c>
       <c r="H290" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -10169,16 +10175,16 @@
         <v>67</v>
       </c>
       <c r="E291" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F291" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G291" t="s">
         <v>237</v>
       </c>
       <c r="H291" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -10204,7 +10210,7 @@
         <v>238</v>
       </c>
       <c r="H292" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -10230,7 +10236,7 @@
         <v>239</v>
       </c>
       <c r="H293" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -10247,7 +10253,7 @@
         <v>67</v>
       </c>
       <c r="E294" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F294" t="s">
         <v>399</v>
@@ -10256,7 +10262,7 @@
         <v>240</v>
       </c>
       <c r="H294" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -10282,7 +10288,7 @@
         <v>241</v>
       </c>
       <c r="H295" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10299,7 +10305,7 @@
         <v>67</v>
       </c>
       <c r="E296" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F296" t="s">
         <v>399</v>
@@ -10308,7 +10314,7 @@
         <v>242</v>
       </c>
       <c r="H296" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10325,7 +10331,7 @@
         <v>67</v>
       </c>
       <c r="E297" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F297" t="s">
         <v>399</v>
@@ -10334,7 +10340,7 @@
         <v>242</v>
       </c>
       <c r="H297" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10351,16 +10357,16 @@
         <v>67</v>
       </c>
       <c r="E298" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F298" t="s">
         <v>399</v>
       </c>
       <c r="G298" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H298" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10377,7 +10383,7 @@
         <v>67</v>
       </c>
       <c r="E299" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F299" t="s">
         <v>399</v>
@@ -10386,7 +10392,7 @@
         <v>243</v>
       </c>
       <c r="H299" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10403,7 +10409,7 @@
         <v>67</v>
       </c>
       <c r="E300" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F300" t="s">
         <v>399</v>
@@ -10412,7 +10418,7 @@
         <v>244</v>
       </c>
       <c r="H300" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10429,7 +10435,7 @@
         <v>67</v>
       </c>
       <c r="E301" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F301" t="s">
         <v>399</v>
@@ -10438,7 +10444,7 @@
         <v>245</v>
       </c>
       <c r="H301" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10464,7 +10470,7 @@
         <v>200</v>
       </c>
       <c r="H302" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10481,7 +10487,7 @@
         <v>67</v>
       </c>
       <c r="E303" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F303" t="s">
         <v>399</v>
@@ -10490,7 +10496,7 @@
         <v>246</v>
       </c>
       <c r="H303" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10507,7 +10513,7 @@
         <v>67</v>
       </c>
       <c r="E304" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F304" t="s">
         <v>399</v>
@@ -10516,7 +10522,7 @@
         <v>247</v>
       </c>
       <c r="H304" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10542,7 +10548,7 @@
         <v>248</v>
       </c>
       <c r="H305" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10568,7 +10574,7 @@
         <v>249</v>
       </c>
       <c r="H306" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10585,7 +10591,7 @@
         <v>67</v>
       </c>
       <c r="E307" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F307" t="s">
         <v>399</v>
@@ -10594,7 +10600,7 @@
         <v>250</v>
       </c>
       <c r="H307" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10611,7 +10617,7 @@
         <v>67</v>
       </c>
       <c r="E308" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F308" t="s">
         <v>399</v>
@@ -10620,7 +10626,7 @@
         <v>251</v>
       </c>
       <c r="H308" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10646,7 +10652,7 @@
         <v>252</v>
       </c>
       <c r="H309" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10663,7 +10669,7 @@
         <v>67</v>
       </c>
       <c r="E310" t="s">
-        <v>516</v>
+        <v>331</v>
       </c>
       <c r="F310" t="s">
         <v>399</v>
@@ -10672,7 +10678,7 @@
         <v>253</v>
       </c>
       <c r="H310" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10689,7 +10695,7 @@
         <v>67</v>
       </c>
       <c r="E311" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F311" t="s">
         <v>399</v>
@@ -10698,7 +10704,7 @@
         <v>244</v>
       </c>
       <c r="H311" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10715,7 +10721,7 @@
         <v>67</v>
       </c>
       <c r="E312" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F312" t="s">
         <v>399</v>
@@ -10724,7 +10730,7 @@
         <v>254</v>
       </c>
       <c r="H312" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10741,7 +10747,7 @@
         <v>67</v>
       </c>
       <c r="E313" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F313" t="s">
         <v>399</v>
@@ -10750,7 +10756,7 @@
         <v>255</v>
       </c>
       <c r="H313" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10767,7 +10773,7 @@
         <v>67</v>
       </c>
       <c r="E314" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F314" t="s">
         <v>399</v>
@@ -10776,7 +10782,7 @@
         <v>256</v>
       </c>
       <c r="H314" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10793,7 +10799,7 @@
         <v>67</v>
       </c>
       <c r="E315" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F315" t="s">
         <v>399</v>
@@ -10802,7 +10808,7 @@
         <v>257</v>
       </c>
       <c r="H315" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10819,7 +10825,7 @@
         <v>67</v>
       </c>
       <c r="E316" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F316" t="s">
         <v>399</v>
@@ -10828,7 +10834,7 @@
         <v>258</v>
       </c>
       <c r="H316" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10845,16 +10851,16 @@
         <v>67</v>
       </c>
       <c r="E317" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F317" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G317" t="s">
         <v>225</v>
       </c>
       <c r="H317" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10871,7 +10877,7 @@
         <v>67</v>
       </c>
       <c r="E318" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F318" t="s">
         <v>399</v>
@@ -10880,7 +10886,7 @@
         <v>259</v>
       </c>
       <c r="H318" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10897,7 +10903,7 @@
         <v>67</v>
       </c>
       <c r="E319" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F319" t="s">
         <v>399</v>
@@ -10906,7 +10912,7 @@
         <v>260</v>
       </c>
       <c r="H319" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10923,7 +10929,7 @@
         <v>67</v>
       </c>
       <c r="E320" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F320" t="s">
         <v>399</v>
@@ -10932,7 +10938,7 @@
         <v>261</v>
       </c>
       <c r="H320" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10949,7 +10955,7 @@
         <v>67</v>
       </c>
       <c r="E321" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F321" t="s">
         <v>399</v>
@@ -10958,7 +10964,7 @@
         <v>254</v>
       </c>
       <c r="H321" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10975,7 +10981,7 @@
         <v>67</v>
       </c>
       <c r="E322" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F322" t="s">
         <v>399</v>
@@ -10984,7 +10990,7 @@
         <v>262</v>
       </c>
       <c r="H322" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11010,7 +11016,7 @@
         <v>263</v>
       </c>
       <c r="H323" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11027,16 +11033,16 @@
         <v>67</v>
       </c>
       <c r="E324" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F324" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G324" t="s">
         <v>264</v>
       </c>
       <c r="H324" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11053,7 +11059,7 @@
         <v>67</v>
       </c>
       <c r="E325" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F325" t="s">
         <v>399</v>
@@ -11062,7 +11068,7 @@
         <v>265</v>
       </c>
       <c r="H325" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11088,7 +11094,7 @@
         <v>266</v>
       </c>
       <c r="H326" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11114,7 +11120,7 @@
         <v>267</v>
       </c>
       <c r="H327" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11131,7 +11137,7 @@
         <v>67</v>
       </c>
       <c r="E328" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F328" t="s">
         <v>399</v>
@@ -11140,7 +11146,7 @@
         <v>262</v>
       </c>
       <c r="H328" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -11157,7 +11163,7 @@
         <v>67</v>
       </c>
       <c r="E329" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F329" t="s">
         <v>399</v>
@@ -11166,7 +11172,7 @@
         <v>268</v>
       </c>
       <c r="H329" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -11183,7 +11189,7 @@
         <v>67</v>
       </c>
       <c r="E330" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F330" t="s">
         <v>399</v>
@@ -11192,7 +11198,7 @@
         <v>269</v>
       </c>
       <c r="H330" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -11218,7 +11224,7 @@
         <v>270</v>
       </c>
       <c r="H331" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -11235,7 +11241,7 @@
         <v>67</v>
       </c>
       <c r="E332" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="F332" t="s">
         <v>399</v>
@@ -11244,7 +11250,7 @@
         <v>271</v>
       </c>
       <c r="H332" t="s">
-        <v>692</v>
+        <v>654</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -11261,7 +11267,7 @@
         <v>67</v>
       </c>
       <c r="E333" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F333" t="s">
         <v>399</v>
@@ -11270,7 +11276,7 @@
         <v>260</v>
       </c>
       <c r="H333" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -11287,16 +11293,16 @@
         <v>67</v>
       </c>
       <c r="E334" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F334" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G334" t="s">
         <v>272</v>
       </c>
       <c r="H334" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11313,7 +11319,7 @@
         <v>67</v>
       </c>
       <c r="E335" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F335" t="s">
         <v>399</v>
@@ -11322,7 +11328,7 @@
         <v>273</v>
       </c>
       <c r="H335" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11339,16 +11345,16 @@
         <v>67</v>
       </c>
       <c r="E336" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F336" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G336" t="s">
         <v>274</v>
       </c>
       <c r="H336" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11374,7 +11380,7 @@
         <v>267</v>
       </c>
       <c r="H337" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11391,7 +11397,7 @@
         <v>67</v>
       </c>
       <c r="E338" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F338" t="s">
         <v>399</v>
@@ -11400,7 +11406,7 @@
         <v>275</v>
       </c>
       <c r="H338" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11417,7 +11423,7 @@
         <v>67</v>
       </c>
       <c r="E339" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F339" t="s">
         <v>399</v>
@@ -11426,7 +11432,7 @@
         <v>276</v>
       </c>
       <c r="H339" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11443,7 +11449,7 @@
         <v>67</v>
       </c>
       <c r="E340" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F340" t="s">
         <v>399</v>
@@ -11452,7 +11458,7 @@
         <v>277</v>
       </c>
       <c r="H340" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11469,16 +11475,16 @@
         <v>67</v>
       </c>
       <c r="E341" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F341" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G341" t="s">
         <v>278</v>
       </c>
       <c r="H341" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11495,7 +11501,7 @@
         <v>67</v>
       </c>
       <c r="E342" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F342" t="s">
         <v>399</v>
@@ -11504,7 +11510,7 @@
         <v>279</v>
       </c>
       <c r="H342" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11530,7 +11536,7 @@
         <v>280</v>
       </c>
       <c r="H343" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11547,7 +11553,7 @@
         <v>67</v>
       </c>
       <c r="E344" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F344" t="s">
         <v>399</v>
@@ -11556,7 +11562,7 @@
         <v>281</v>
       </c>
       <c r="H344" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11573,7 +11579,7 @@
         <v>67</v>
       </c>
       <c r="E345" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F345" t="s">
         <v>399</v>
@@ -11582,7 +11588,7 @@
         <v>282</v>
       </c>
       <c r="H345" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11608,7 +11614,7 @@
         <v>283</v>
       </c>
       <c r="H346" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11625,7 +11631,7 @@
         <v>67</v>
       </c>
       <c r="E347" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F347" t="s">
         <v>399</v>
@@ -11634,7 +11640,7 @@
         <v>284</v>
       </c>
       <c r="H347" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11654,13 +11660,13 @@
         <v>164</v>
       </c>
       <c r="F348" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G348" t="s">
         <v>164</v>
       </c>
       <c r="H348" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11677,7 +11683,7 @@
         <v>67</v>
       </c>
       <c r="E349" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F349" t="s">
         <v>399</v>
@@ -11686,7 +11692,7 @@
         <v>285</v>
       </c>
       <c r="H349" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11712,7 +11718,7 @@
         <v>286</v>
       </c>
       <c r="H350" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11738,7 +11744,7 @@
         <v>287</v>
       </c>
       <c r="H351" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11755,7 +11761,7 @@
         <v>67</v>
       </c>
       <c r="E352" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F352" t="s">
         <v>399</v>
@@ -11764,7 +11770,7 @@
         <v>288</v>
       </c>
       <c r="H352" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11781,7 +11787,7 @@
         <v>67</v>
       </c>
       <c r="E353" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F353" t="s">
         <v>399</v>
@@ -11790,7 +11796,7 @@
         <v>289</v>
       </c>
       <c r="H353" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11807,7 +11813,7 @@
         <v>67</v>
       </c>
       <c r="E354" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F354" t="s">
         <v>399</v>
@@ -11816,7 +11822,7 @@
         <v>290</v>
       </c>
       <c r="H354" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11833,7 +11839,7 @@
         <v>67</v>
       </c>
       <c r="E355" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F355" t="s">
         <v>399</v>
@@ -11842,7 +11848,7 @@
         <v>291</v>
       </c>
       <c r="H355" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11859,7 +11865,7 @@
         <v>67</v>
       </c>
       <c r="E356" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F356" t="s">
         <v>399</v>
@@ -11868,7 +11874,7 @@
         <v>292</v>
       </c>
       <c r="H356" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11885,7 +11891,7 @@
         <v>67</v>
       </c>
       <c r="E357" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F357" t="s">
         <v>399</v>
@@ -11894,7 +11900,7 @@
         <v>291</v>
       </c>
       <c r="H357" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11911,7 +11917,7 @@
         <v>67</v>
       </c>
       <c r="E358" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F358" t="s">
         <v>399</v>
@@ -11920,7 +11926,7 @@
         <v>293</v>
       </c>
       <c r="H358" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11937,7 +11943,7 @@
         <v>67</v>
       </c>
       <c r="E359" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F359" t="s">
         <v>399</v>
@@ -11946,7 +11952,7 @@
         <v>294</v>
       </c>
       <c r="H359" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11963,7 +11969,7 @@
         <v>67</v>
       </c>
       <c r="E360" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F360" t="s">
         <v>399</v>
@@ -11972,7 +11978,7 @@
         <v>290</v>
       </c>
       <c r="H360" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11989,7 +11995,7 @@
         <v>67</v>
       </c>
       <c r="E361" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F361" t="s">
         <v>399</v>
@@ -11998,7 +12004,7 @@
         <v>295</v>
       </c>
       <c r="H361" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12015,7 +12021,7 @@
         <v>67</v>
       </c>
       <c r="E362" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F362" t="s">
         <v>399</v>
@@ -12024,7 +12030,7 @@
         <v>296</v>
       </c>
       <c r="H362" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12041,7 +12047,7 @@
         <v>67</v>
       </c>
       <c r="E363" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F363" t="s">
         <v>399</v>
@@ -12050,7 +12056,7 @@
         <v>297</v>
       </c>
       <c r="H363" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12067,7 +12073,7 @@
         <v>67</v>
       </c>
       <c r="E364" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F364" t="s">
         <v>399</v>
@@ -12076,7 +12082,7 @@
         <v>298</v>
       </c>
       <c r="H364" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12093,7 +12099,7 @@
         <v>67</v>
       </c>
       <c r="E365" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F365" t="s">
         <v>399</v>
@@ -12102,7 +12108,7 @@
         <v>293</v>
       </c>
       <c r="H365" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12119,7 +12125,7 @@
         <v>67</v>
       </c>
       <c r="E366" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F366" t="s">
         <v>399</v>
@@ -12128,7 +12134,7 @@
         <v>297</v>
       </c>
       <c r="H366" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12145,7 +12151,7 @@
         <v>67</v>
       </c>
       <c r="E367" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F367" t="s">
         <v>399</v>
@@ -12154,7 +12160,7 @@
         <v>299</v>
       </c>
       <c r="H367" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -12180,7 +12186,7 @@
         <v>300</v>
       </c>
       <c r="H368" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -12197,7 +12203,7 @@
         <v>67</v>
       </c>
       <c r="E369" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F369" t="s">
         <v>399</v>
@@ -12206,7 +12212,7 @@
         <v>301</v>
       </c>
       <c r="H369" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -12226,13 +12232,13 @@
         <v>108</v>
       </c>
       <c r="F370" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G370" t="s">
         <v>302</v>
       </c>
       <c r="H370" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -12249,7 +12255,7 @@
         <v>67</v>
       </c>
       <c r="E371" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F371" t="s">
         <v>399</v>
@@ -12258,7 +12264,7 @@
         <v>303</v>
       </c>
       <c r="H371" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -12275,7 +12281,7 @@
         <v>67</v>
       </c>
       <c r="E372" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F372" t="s">
         <v>399</v>
@@ -12284,7 +12290,7 @@
         <v>304</v>
       </c>
       <c r="H372" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12301,7 +12307,7 @@
         <v>67</v>
       </c>
       <c r="E373" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F373" t="s">
         <v>399</v>
@@ -12310,7 +12316,7 @@
         <v>305</v>
       </c>
       <c r="H373" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12336,7 +12342,7 @@
         <v>306</v>
       </c>
       <c r="H374" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12353,7 +12359,7 @@
         <v>67</v>
       </c>
       <c r="E375" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F375" t="s">
         <v>399</v>
@@ -12362,7 +12368,7 @@
         <v>307</v>
       </c>
       <c r="H375" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12388,7 +12394,7 @@
         <v>308</v>
       </c>
       <c r="H376" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12414,7 +12420,7 @@
         <v>309</v>
       </c>
       <c r="H377" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12431,16 +12437,16 @@
         <v>67</v>
       </c>
       <c r="E378" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F378" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G378" t="s">
         <v>310</v>
       </c>
       <c r="H378" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12457,16 +12463,16 @@
         <v>67</v>
       </c>
       <c r="E379" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F379" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G379" t="s">
         <v>311</v>
       </c>
       <c r="H379" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12483,7 +12489,7 @@
         <v>67</v>
       </c>
       <c r="E380" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F380" t="s">
         <v>399</v>
@@ -12492,7 +12498,7 @@
         <v>312</v>
       </c>
       <c r="H380" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12509,16 +12515,16 @@
         <v>67</v>
       </c>
       <c r="E381" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F381" t="s">
         <v>399</v>
       </c>
       <c r="G381" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="H381" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12535,7 +12541,7 @@
         <v>67</v>
       </c>
       <c r="E382" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F382" t="s">
         <v>399</v>
@@ -12544,7 +12550,7 @@
         <v>307</v>
       </c>
       <c r="H382" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12561,16 +12567,16 @@
         <v>67</v>
       </c>
       <c r="E383" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F383" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G383" t="s">
         <v>313</v>
       </c>
       <c r="H383" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12587,7 +12593,7 @@
         <v>67</v>
       </c>
       <c r="E384" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F384" t="s">
         <v>399</v>
@@ -12596,7 +12602,7 @@
         <v>299</v>
       </c>
       <c r="H384" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12622,7 +12628,7 @@
         <v>314</v>
       </c>
       <c r="H385" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12639,7 +12645,7 @@
         <v>67</v>
       </c>
       <c r="E386" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F386" t="s">
         <v>399</v>
@@ -12648,7 +12654,7 @@
         <v>315</v>
       </c>
       <c r="H386" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12665,7 +12671,7 @@
         <v>67</v>
       </c>
       <c r="E387" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F387" t="s">
         <v>399</v>
@@ -12674,7 +12680,7 @@
         <v>316</v>
       </c>
       <c r="H387" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12691,7 +12697,7 @@
         <v>67</v>
       </c>
       <c r="E388" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F388" t="s">
         <v>399</v>
@@ -12700,7 +12706,7 @@
         <v>317</v>
       </c>
       <c r="H388" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12726,7 +12732,7 @@
         <v>318</v>
       </c>
       <c r="H389" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12752,7 +12758,7 @@
         <v>319</v>
       </c>
       <c r="H390" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12778,7 +12784,7 @@
         <v>320</v>
       </c>
       <c r="H391" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12795,7 +12801,7 @@
         <v>67</v>
       </c>
       <c r="E392" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F392" t="s">
         <v>399</v>
@@ -12804,7 +12810,7 @@
         <v>321</v>
       </c>
       <c r="H392" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12821,7 +12827,7 @@
         <v>67</v>
       </c>
       <c r="E393" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F393" t="s">
         <v>399</v>
@@ -12830,7 +12836,7 @@
         <v>322</v>
       </c>
       <c r="H393" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12847,7 +12853,7 @@
         <v>67</v>
       </c>
       <c r="E394" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F394" t="s">
         <v>399</v>
@@ -12856,7 +12862,7 @@
         <v>323</v>
       </c>
       <c r="H394" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12873,7 +12879,7 @@
         <v>67</v>
       </c>
       <c r="E395" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F395" t="s">
         <v>399</v>
@@ -12882,7 +12888,7 @@
         <v>324</v>
       </c>
       <c r="H395" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12899,7 +12905,7 @@
         <v>67</v>
       </c>
       <c r="E396" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F396" t="s">
         <v>399</v>
@@ -12908,7 +12914,7 @@
         <v>325</v>
       </c>
       <c r="H396" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12925,7 +12931,7 @@
         <v>67</v>
       </c>
       <c r="E397" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F397" t="s">
         <v>399</v>
@@ -12934,7 +12940,7 @@
         <v>326</v>
       </c>
       <c r="H397" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12960,7 +12966,7 @@
         <v>327</v>
       </c>
       <c r="H398" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12986,7 +12992,7 @@
         <v>328</v>
       </c>
       <c r="H399" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13003,7 +13009,7 @@
         <v>67</v>
       </c>
       <c r="E400" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F400" t="s">
         <v>399</v>
@@ -13012,7 +13018,7 @@
         <v>329</v>
       </c>
       <c r="H400" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13029,7 +13035,7 @@
         <v>67</v>
       </c>
       <c r="E401" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F401" t="s">
         <v>399</v>
@@ -13038,7 +13044,7 @@
         <v>330</v>
       </c>
       <c r="H401" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13055,7 +13061,7 @@
         <v>67</v>
       </c>
       <c r="E402" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F402" t="s">
         <v>399</v>
@@ -13064,7 +13070,7 @@
         <v>331</v>
       </c>
       <c r="H402" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13081,7 +13087,7 @@
         <v>67</v>
       </c>
       <c r="E403" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F403" t="s">
         <v>399</v>
@@ -13090,7 +13096,7 @@
         <v>326</v>
       </c>
       <c r="H403" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13107,7 +13113,7 @@
         <v>67</v>
       </c>
       <c r="E404" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F404" t="s">
         <v>399</v>
@@ -13116,7 +13122,7 @@
         <v>332</v>
       </c>
       <c r="H404" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13133,7 +13139,7 @@
         <v>67</v>
       </c>
       <c r="E405" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F405" t="s">
         <v>399</v>
@@ -13142,7 +13148,7 @@
         <v>333</v>
       </c>
       <c r="H405" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -13159,7 +13165,7 @@
         <v>67</v>
       </c>
       <c r="E406" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F406" t="s">
         <v>399</v>
@@ -13168,7 +13174,7 @@
         <v>334</v>
       </c>
       <c r="H406" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -13194,7 +13200,7 @@
         <v>335</v>
       </c>
       <c r="H407" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -13211,16 +13217,16 @@
         <v>67</v>
       </c>
       <c r="E408" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F408" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G408" t="s">
         <v>336</v>
       </c>
       <c r="H408" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -13246,7 +13252,7 @@
         <v>337</v>
       </c>
       <c r="H409" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -13263,7 +13269,7 @@
         <v>67</v>
       </c>
       <c r="E410" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F410" t="s">
         <v>399</v>
@@ -13272,7 +13278,7 @@
         <v>323</v>
       </c>
       <c r="H410" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -13289,7 +13295,7 @@
         <v>67</v>
       </c>
       <c r="E411" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F411" t="s">
         <v>399</v>
@@ -13298,7 +13304,7 @@
         <v>338</v>
       </c>
       <c r="H411" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13315,7 +13321,7 @@
         <v>67</v>
       </c>
       <c r="E412" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F412" t="s">
         <v>399</v>
@@ -13324,7 +13330,7 @@
         <v>338</v>
       </c>
       <c r="H412" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13350,7 +13356,7 @@
         <v>318</v>
       </c>
       <c r="H413" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13376,7 +13382,7 @@
         <v>339</v>
       </c>
       <c r="H414" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13396,13 +13402,13 @@
         <v>540</v>
       </c>
       <c r="F415" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G415" t="s">
         <v>540</v>
       </c>
       <c r="H415" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13419,7 +13425,7 @@
         <v>444</v>
       </c>
       <c r="E416" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F416" t="s">
         <v>399</v>
@@ -13428,7 +13434,7 @@
         <v>334</v>
       </c>
       <c r="H416" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13448,13 +13454,13 @@
         <v>108</v>
       </c>
       <c r="F417" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G417" t="s">
         <v>341</v>
       </c>
       <c r="H417" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13471,7 +13477,7 @@
         <v>67</v>
       </c>
       <c r="E418" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F418" t="s">
         <v>399</v>
@@ -13480,7 +13486,7 @@
         <v>342</v>
       </c>
       <c r="H418" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13497,7 +13503,7 @@
         <v>67</v>
       </c>
       <c r="E419" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F419" t="s">
         <v>399</v>
@@ -13506,7 +13512,7 @@
         <v>343</v>
       </c>
       <c r="H419" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13532,7 +13538,7 @@
         <v>344</v>
       </c>
       <c r="H420" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13549,7 +13555,7 @@
         <v>67</v>
       </c>
       <c r="E421" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F421" t="s">
         <v>399</v>
@@ -13558,7 +13564,7 @@
         <v>337</v>
       </c>
       <c r="H421" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13584,7 +13590,7 @@
         <v>345</v>
       </c>
       <c r="H422" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13601,7 +13607,7 @@
         <v>67</v>
       </c>
       <c r="E423" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F423" t="s">
         <v>399</v>
@@ -13610,7 +13616,7 @@
         <v>346</v>
       </c>
       <c r="H423" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13627,7 +13633,7 @@
         <v>67</v>
       </c>
       <c r="E424" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F424" t="s">
         <v>399</v>
@@ -13636,7 +13642,7 @@
         <v>332</v>
       </c>
       <c r="H424" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13662,7 +13668,7 @@
         <v>347</v>
       </c>
       <c r="H425" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13679,16 +13685,16 @@
         <v>67</v>
       </c>
       <c r="E426" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F426" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G426" t="s">
         <v>348</v>
       </c>
       <c r="H426" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13708,13 +13714,13 @@
         <v>108</v>
       </c>
       <c r="F427" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G427" t="s">
         <v>341</v>
       </c>
       <c r="H427" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13734,13 +13740,13 @@
         <v>542</v>
       </c>
       <c r="F428" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G428" t="s">
         <v>349</v>
       </c>
       <c r="H428" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13766,7 +13772,7 @@
         <v>325</v>
       </c>
       <c r="H429" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13783,7 +13789,7 @@
         <v>67</v>
       </c>
       <c r="E430" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F430" t="s">
         <v>399</v>
@@ -13792,7 +13798,7 @@
         <v>350</v>
       </c>
       <c r="H430" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13818,7 +13824,7 @@
         <v>339</v>
       </c>
       <c r="H431" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13844,7 +13850,7 @@
         <v>344</v>
       </c>
       <c r="H432" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13870,7 +13876,7 @@
         <v>333</v>
       </c>
       <c r="H433" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13887,7 +13893,7 @@
         <v>67</v>
       </c>
       <c r="E434" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F434" t="s">
         <v>399</v>
@@ -13896,7 +13902,7 @@
         <v>351</v>
       </c>
       <c r="H434" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13913,7 +13919,7 @@
         <v>67</v>
       </c>
       <c r="E435" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F435" t="s">
         <v>399</v>
@@ -13922,7 +13928,7 @@
         <v>352</v>
       </c>
       <c r="H435" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13939,16 +13945,16 @@
         <v>67</v>
       </c>
       <c r="E436" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F436" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G436" t="s">
         <v>353</v>
       </c>
       <c r="H436" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13974,7 +13980,7 @@
         <v>354</v>
       </c>
       <c r="H437" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13991,7 +13997,7 @@
         <v>67</v>
       </c>
       <c r="E438" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F438" t="s">
         <v>399</v>
@@ -14000,7 +14006,7 @@
         <v>355</v>
       </c>
       <c r="H438" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14017,16 +14023,16 @@
         <v>67</v>
       </c>
       <c r="E439" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F439" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G439" t="s">
         <v>340</v>
       </c>
       <c r="H439" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14043,7 +14049,7 @@
         <v>67</v>
       </c>
       <c r="E440" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F440" t="s">
         <v>399</v>
@@ -14052,7 +14058,7 @@
         <v>356</v>
       </c>
       <c r="H440" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14069,7 +14075,7 @@
         <v>67</v>
       </c>
       <c r="E441" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F441" t="s">
         <v>399</v>
@@ -14078,7 +14084,7 @@
         <v>357</v>
       </c>
       <c r="H441" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14095,7 +14101,7 @@
         <v>67</v>
       </c>
       <c r="E442" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F442" t="s">
         <v>399</v>
@@ -14104,7 +14110,7 @@
         <v>358</v>
       </c>
       <c r="H442" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14121,16 +14127,16 @@
         <v>67</v>
       </c>
       <c r="E443" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F443" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G443" t="s">
         <v>359</v>
       </c>
       <c r="H443" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14147,7 +14153,7 @@
         <v>67</v>
       </c>
       <c r="E444" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F444" t="s">
         <v>399</v>
@@ -14156,7 +14162,7 @@
         <v>360</v>
       </c>
       <c r="H444" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -14173,16 +14179,16 @@
         <v>67</v>
       </c>
       <c r="E445" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F445" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G445" t="s">
         <v>361</v>
       </c>
       <c r="H445" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -14199,7 +14205,7 @@
         <v>67</v>
       </c>
       <c r="E446" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F446" t="s">
         <v>399</v>
@@ -14208,7 +14214,7 @@
         <v>357</v>
       </c>
       <c r="H446" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -14225,16 +14231,16 @@
         <v>67</v>
       </c>
       <c r="E447" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F447" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G447" t="s">
         <v>362</v>
       </c>
       <c r="H447" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -14251,7 +14257,7 @@
         <v>67</v>
       </c>
       <c r="E448" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F448" t="s">
         <v>399</v>
@@ -14260,7 +14266,7 @@
         <v>363</v>
       </c>
       <c r="H448" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -14286,7 +14292,7 @@
         <v>364</v>
       </c>
       <c r="H449" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14303,7 +14309,7 @@
         <v>67</v>
       </c>
       <c r="E450" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F450" t="s">
         <v>399</v>
@@ -14312,7 +14318,7 @@
         <v>365</v>
       </c>
       <c r="H450" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14329,7 +14335,7 @@
         <v>67</v>
       </c>
       <c r="E451" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F451" t="s">
         <v>399</v>
@@ -14338,7 +14344,7 @@
         <v>366</v>
       </c>
       <c r="H451" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14355,7 +14361,7 @@
         <v>67</v>
       </c>
       <c r="E452" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F452" t="s">
         <v>399</v>
@@ -14364,7 +14370,7 @@
         <v>363</v>
       </c>
       <c r="H452" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14381,7 +14387,7 @@
         <v>67</v>
       </c>
       <c r="E453" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F453" t="s">
         <v>399</v>
@@ -14390,7 +14396,7 @@
         <v>366</v>
       </c>
       <c r="H453" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14407,7 +14413,7 @@
         <v>67</v>
       </c>
       <c r="E454" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F454" t="s">
         <v>399</v>
@@ -14416,7 +14422,7 @@
         <v>337</v>
       </c>
       <c r="H454" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14433,7 +14439,7 @@
         <v>67</v>
       </c>
       <c r="E455" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F455" t="s">
         <v>399</v>
@@ -14442,7 +14448,7 @@
         <v>367</v>
       </c>
       <c r="H455" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14459,7 +14465,7 @@
         <v>67</v>
       </c>
       <c r="E456" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F456" t="s">
         <v>399</v>
@@ -14468,7 +14474,7 @@
         <v>368</v>
       </c>
       <c r="H456" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14494,7 +14500,7 @@
         <v>356</v>
       </c>
       <c r="H457" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14511,7 +14517,7 @@
         <v>67</v>
       </c>
       <c r="E458" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F458" t="s">
         <v>399</v>
@@ -14520,7 +14526,7 @@
         <v>369</v>
       </c>
       <c r="H458" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14537,7 +14543,7 @@
         <v>67</v>
       </c>
       <c r="E459" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F459" t="s">
         <v>399</v>
@@ -14546,7 +14552,7 @@
         <v>370</v>
       </c>
       <c r="H459" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14563,7 +14569,7 @@
         <v>67</v>
       </c>
       <c r="E460" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F460" t="s">
         <v>399</v>
@@ -14572,7 +14578,7 @@
         <v>366</v>
       </c>
       <c r="H460" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14598,7 +14604,7 @@
         <v>371</v>
       </c>
       <c r="H461" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14615,7 +14621,7 @@
         <v>67</v>
       </c>
       <c r="E462" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F462" t="s">
         <v>399</v>
@@ -14624,7 +14630,7 @@
         <v>368</v>
       </c>
       <c r="H462" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14644,13 +14650,13 @@
         <v>108</v>
       </c>
       <c r="F463" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G463" t="s">
         <v>372</v>
       </c>
       <c r="H463" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14667,7 +14673,7 @@
         <v>67</v>
       </c>
       <c r="E464" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F464" t="s">
         <v>399</v>
@@ -14676,7 +14682,7 @@
         <v>365</v>
       </c>
       <c r="H464" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14702,7 +14708,7 @@
         <v>373</v>
       </c>
       <c r="H465" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14728,7 +14734,7 @@
         <v>374</v>
       </c>
       <c r="H466" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14745,7 +14751,7 @@
         <v>67</v>
       </c>
       <c r="E467" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F467" t="s">
         <v>399</v>
@@ -14754,7 +14760,7 @@
         <v>370</v>
       </c>
       <c r="H467" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14771,7 +14777,7 @@
         <v>67</v>
       </c>
       <c r="E468" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F468" t="s">
         <v>399</v>
@@ -14780,7 +14786,7 @@
         <v>375</v>
       </c>
       <c r="H468" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14797,16 +14803,16 @@
         <v>67</v>
       </c>
       <c r="E469" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F469" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G469" t="s">
         <v>340</v>
       </c>
       <c r="H469" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14823,7 +14829,7 @@
         <v>67</v>
       </c>
       <c r="E470" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F470" t="s">
         <v>399</v>
@@ -14832,7 +14838,7 @@
         <v>376</v>
       </c>
       <c r="H470" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14849,7 +14855,7 @@
         <v>67</v>
       </c>
       <c r="E471" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F471" t="s">
         <v>399</v>
@@ -14858,7 +14864,7 @@
         <v>377</v>
       </c>
       <c r="H471" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14875,7 +14881,7 @@
         <v>67</v>
       </c>
       <c r="E472" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F472" t="s">
         <v>399</v>
@@ -14884,7 +14890,7 @@
         <v>378</v>
       </c>
       <c r="H472" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14904,13 +14910,13 @@
         <v>67</v>
       </c>
       <c r="F473" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G473" t="s">
         <v>379</v>
       </c>
       <c r="H473" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14936,7 +14942,7 @@
         <v>380</v>
       </c>
       <c r="H474" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14962,7 +14968,7 @@
         <v>381</v>
       </c>
       <c r="H475" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14979,7 +14985,7 @@
         <v>67</v>
       </c>
       <c r="E476" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F476" t="s">
         <v>399</v>
@@ -14988,7 +14994,7 @@
         <v>382</v>
       </c>
       <c r="H476" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15005,7 +15011,7 @@
         <v>67</v>
       </c>
       <c r="E477" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F477" t="s">
         <v>399</v>
@@ -15014,7 +15020,7 @@
         <v>383</v>
       </c>
       <c r="H477" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15031,16 +15037,16 @@
         <v>67</v>
       </c>
       <c r="E478" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F478" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G478" t="s">
         <v>384</v>
       </c>
       <c r="H478" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15066,7 +15072,7 @@
         <v>374</v>
       </c>
       <c r="H479" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15083,16 +15089,16 @@
         <v>67</v>
       </c>
       <c r="E480" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F480" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G480" t="s">
         <v>384</v>
       </c>
       <c r="H480" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15118,7 +15124,7 @@
         <v>385</v>
       </c>
       <c r="H481" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15135,7 +15141,7 @@
         <v>67</v>
       </c>
       <c r="E482" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F482" t="s">
         <v>399</v>
@@ -15144,7 +15150,7 @@
         <v>386</v>
       </c>
       <c r="H482" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -15161,16 +15167,16 @@
         <v>67</v>
       </c>
       <c r="E483" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F483" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G483" t="s">
         <v>387</v>
       </c>
       <c r="H483" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -15190,13 +15196,13 @@
         <v>540</v>
       </c>
       <c r="F484" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G484" t="s">
         <v>387</v>
       </c>
       <c r="H484" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -15222,7 +15228,7 @@
         <v>388</v>
       </c>
       <c r="H485" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -15239,16 +15245,16 @@
         <v>445</v>
       </c>
       <c r="E486" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F486" t="s">
         <v>399</v>
       </c>
       <c r="G486" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H486" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -15265,7 +15271,7 @@
         <v>67</v>
       </c>
       <c r="E487" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F487" t="s">
         <v>399</v>
@@ -15274,7 +15280,7 @@
         <v>389</v>
       </c>
       <c r="H487" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -15291,7 +15297,7 @@
         <v>67</v>
       </c>
       <c r="E488" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F488" t="s">
         <v>399</v>
@@ -15300,7 +15306,7 @@
         <v>390</v>
       </c>
       <c r="H488" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15317,7 +15323,7 @@
         <v>67</v>
       </c>
       <c r="E489" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F489" t="s">
         <v>399</v>
@@ -15326,7 +15332,7 @@
         <v>377</v>
       </c>
       <c r="H489" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15343,7 +15349,7 @@
         <v>67</v>
       </c>
       <c r="E490" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F490" t="s">
         <v>399</v>
@@ -15352,7 +15358,7 @@
         <v>390</v>
       </c>
       <c r="H490" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15378,7 +15384,7 @@
         <v>391</v>
       </c>
       <c r="H491" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15395,7 +15401,7 @@
         <v>67</v>
       </c>
       <c r="E492" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F492" t="s">
         <v>399</v>
@@ -15404,7 +15410,7 @@
         <v>337</v>
       </c>
       <c r="H492" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15424,13 +15430,13 @@
         <v>108</v>
       </c>
       <c r="F493" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G493" t="s">
         <v>392</v>
       </c>
       <c r="H493" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15447,16 +15453,16 @@
         <v>67</v>
       </c>
       <c r="E494" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F494" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G494" t="s">
         <v>393</v>
       </c>
       <c r="H494" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15473,7 +15479,7 @@
         <v>67</v>
       </c>
       <c r="E495" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F495" t="s">
         <v>399</v>
@@ -15482,7 +15488,7 @@
         <v>394</v>
       </c>
       <c r="H495" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15499,7 +15505,7 @@
         <v>67</v>
       </c>
       <c r="E496" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F496" t="s">
         <v>399</v>
@@ -15508,7 +15514,7 @@
         <v>395</v>
       </c>
       <c r="H496" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15525,7 +15531,7 @@
         <v>67</v>
       </c>
       <c r="E497" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F497" t="s">
         <v>399</v>
@@ -15534,7 +15540,7 @@
         <v>396</v>
       </c>
       <c r="H497" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15554,13 +15560,13 @@
         <v>108</v>
       </c>
       <c r="F498" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G498" t="s">
         <v>392</v>
       </c>
       <c r="H498" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15577,16 +15583,16 @@
         <v>67</v>
       </c>
       <c r="E499" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F499" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G499" t="s">
         <v>397</v>
       </c>
       <c r="H499" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15603,7 +15609,7 @@
         <v>67</v>
       </c>
       <c r="E500" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F500" t="s">
         <v>399</v>
@@ -15612,7 +15618,7 @@
         <v>395</v>
       </c>
       <c r="H500" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15629,16 +15635,16 @@
         <v>67</v>
       </c>
       <c r="E501" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F501" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G501" t="s">
         <v>398</v>
       </c>
       <c r="H501" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
